--- a/resources/TestData.xlsx
+++ b/resources/TestData.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9000"/>
+    <workbookView windowWidth="23040" windowHeight="9000" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="API" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,9 +28,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
-    <t>Test Case Name</t>
+    <t>TestCaseName</t>
   </si>
   <si>
     <t>productName</t>
@@ -57,6 +58,24 @@
   </si>
   <si>
     <t xml:space="preserve"> Sauce Labs. All Rights Reserved. Terms of Service | Privacy Policy</t>
+  </si>
+  <si>
+    <t>endpoint</t>
+  </si>
+  <si>
+    <t>requestType</t>
+  </si>
+  <si>
+    <t>body</t>
+  </si>
+  <si>
+    <t>getUserDetails</t>
+  </si>
+  <si>
+    <t>https://reqres.in/api/users/2</t>
+  </si>
+  <si>
+    <t>get</t>
   </si>
 </sst>
 </file>
@@ -688,8 +707,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="6" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
@@ -1233,8 +1258,8 @@
   <sheetPr/>
   <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -1245,385 +1270,465 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="4">
+        <v>29.99</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="20.1111111111111" customWidth="1"/>
+    <col min="2" max="2" width="26.1111111111111" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-    </row>
-    <row r="2" spans="1:15">
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
+      <c r="B2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="2">
-        <v>29.99</v>
-      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
       <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
-      <c r="D5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-    </row>
-    <row r="7" spans="1:15">
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-    </row>
-    <row r="13" spans="1:15">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-    </row>
-    <row r="14" spans="1:15">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-    </row>
-    <row r="15" spans="1:15">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-    </row>
-    <row r="16" spans="1:15">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-    </row>
-    <row r="17" spans="1:15">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-    </row>
-    <row r="18" spans="1:15">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-    </row>
-    <row r="19" spans="1:15">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-    </row>
-    <row r="20" spans="1:15">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-    </row>
-    <row r="21" spans="1:15">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="https://reqres.in/api/users/2"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/resources/TestData.xlsx
+++ b/resources/TestData.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -76,6 +76,18 @@
   </si>
   <si>
     <t>get</t>
+  </si>
+  <si>
+    <t>createUserTest</t>
+  </si>
+  <si>
+    <t>https://reqres.in/api/users</t>
+  </si>
+  <si>
+    <t>post</t>
+  </si>
+  <si>
+    <t>{ \"name\": \"stand", \"job\": \"leader\" }</t>
   </si>
 </sst>
 </file>
@@ -1660,13 +1672,14 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="20.1111111111111" customWidth="1"/>
     <col min="2" max="2" width="26.1111111111111" customWidth="1"/>
+    <col min="4" max="4" width="39.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1696,10 +1709,18 @@
       <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
+      <c r="A3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1"/>
@@ -1728,6 +1749,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="https://reqres.in/api/users/2"/>
+    <hyperlink ref="B3" r:id="rId2" display="https://reqres.in/api/users"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
